--- a/1st_round_screening/ACE/iteration_4/data/transfer_4.xlsx
+++ b/1st_round_screening/ACE/iteration_4/data/transfer_4.xlsx
@@ -550,10 +550,10 @@
         <v>64</v>
       </c>
       <c r="B2" t="n">
-        <v>350</v>
+        <v>198.45</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>151.55</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -606,10 +606,10 @@
         <v>65</v>
       </c>
       <c r="B3" t="n">
-        <v>350</v>
+        <v>198.45</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>151.55</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -662,10 +662,10 @@
         <v>66</v>
       </c>
       <c r="B4" t="n">
-        <v>350</v>
+        <v>202.65</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>147.35</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>67</v>
       </c>
       <c r="B5" t="n">
-        <v>350</v>
+        <v>198.45</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>151.55</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>68</v>
       </c>
       <c r="B6" t="n">
-        <v>350</v>
+        <v>198.45</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>151.55</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -807,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -830,10 +830,10 @@
         <v>69</v>
       </c>
       <c r="B7" t="n">
-        <v>350</v>
+        <v>198.45</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>151.55</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -886,10 +886,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>350</v>
+        <v>198.45</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>151.55</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -919,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -942,10 +942,10 @@
         <v>71</v>
       </c>
       <c r="B9" t="n">
-        <v>350</v>
+        <v>198.45</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>151.55</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -998,10 +998,10 @@
         <v>72</v>
       </c>
       <c r="B10" t="n">
-        <v>343</v>
+        <v>204.75</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>145.25</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1054,10 +1054,10 @@
         <v>73</v>
       </c>
       <c r="B11" t="n">
-        <v>350</v>
+        <v>198.45</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>151.55</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1087,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>74</v>
       </c>
       <c r="B12" t="n">
-        <v>350</v>
+        <v>256.9</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1143,13 +1143,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1166,10 +1166,10 @@
         <v>75</v>
       </c>
       <c r="B13" t="n">
-        <v>350</v>
+        <v>198.45</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>151.55</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1199,13 +1199,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1222,10 +1222,10 @@
         <v>76</v>
       </c>
       <c r="B14" t="n">
-        <v>301.7</v>
+        <v>198.45</v>
       </c>
       <c r="C14" t="n">
-        <v>48.3</v>
+        <v>151.55</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1255,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1270,7 +1270,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1278,10 +1278,10 @@
         <v>77</v>
       </c>
       <c r="B15" t="n">
-        <v>350</v>
+        <v>198.45</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>151.55</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1334,10 +1334,10 @@
         <v>78</v>
       </c>
       <c r="B16" t="n">
-        <v>350</v>
+        <v>198.45</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>151.55</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1390,10 +1390,10 @@
         <v>79</v>
       </c>
       <c r="B17" t="n">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
